--- a/1-repeated-measures-expected-values/housing-solution.xlsx
+++ b/1-repeated-measures-expected-values/housing-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EF1141-E4F5-47CC-8BEB-D033A0A41A33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553033EB-6916-4BF6-8834-02EC6EAA4820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3309" uniqueCount="25">
   <si>
     <t>price</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>https://rdrr.io/cran/Ecdat/man/Housing.html</t>
+  </si>
+  <si>
+    <t>ac-no</t>
+  </si>
+  <si>
+    <t>ac-yes</t>
+  </si>
+  <si>
+    <t>fullbase-no</t>
+  </si>
+  <si>
+    <t>fullbase-yes</t>
   </si>
 </sst>
 </file>
@@ -8902,7 +8914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -8915,16 +8927,16 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
-        <item x="1"/>
-        <item x="0"/>
+        <item n="fullbase-no" x="1"/>
+        <item n="fullbase-yes" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
-        <item x="0"/>
-        <item x="1"/>
+        <item n="ac-no" x="0"/>
+        <item n="ac-yes" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -9273,7 +9285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041EDBFA-2938-46FA-8C9C-EE65AB434A0B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -9296,15 +9310,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R547"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9399,10 +9413,10 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
         <v>16</v>
@@ -9449,7 +9463,7 @@
         <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P3" s="4">
         <v>248</v>
@@ -9502,7 +9516,7 @@
         <v>13</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4">
         <v>125</v>
@@ -9699,10 +9713,10 @@
         <v>15</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
         <v>16</v>
@@ -9749,7 +9763,7 @@
         <v>13</v>
       </c>
       <c r="O9" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="P9">
         <f>($R$3*$P$5)/$R$5</f>
@@ -9805,7 +9819,7 @@
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P10">
         <f>($R$4*$P$5)/$R$5</f>
@@ -9957,6 +9971,14 @@
       <c r="M13" t="s">
         <v>13</v>
       </c>
+      <c r="O13">
+        <f>_xlfn.CHISQ.TEST(P3:Q4,P9:Q10)</f>
+        <v>0.29037860486317579</v>
+      </c>
+      <c r="P13" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(O13)</f>
+        <v>=CHISQ.TEST(P3:Q4,P9:Q10)</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -9997,10 +10019,6 @@
       </c>
       <c r="M14" t="s">
         <v>13</v>
-      </c>
-      <c r="O14">
-        <f>_xlfn.CHISQ.TEST(P3:Q4,P9:Q10)</f>
-        <v>0.29037860486317579</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">

--- a/1-repeated-measures-expected-values/housing-solution.xlsx
+++ b/1-repeated-measures-expected-values/housing-solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553033EB-6916-4BF6-8834-02EC6EAA4820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F468AB-F6D6-4B64-9ED6-20CFF4D89B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8914,7 +8914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -9310,12 +9310,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="8.88671875" collapsed="1"/>
     <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>

--- a/1-repeated-measures-expected-values/housing-solution.xlsx
+++ b/1-repeated-measures-expected-values/housing-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F468AB-F6D6-4B64-9ED6-20CFF4D89B7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D066F-6CF5-451A-A818-0C9AED4A2931}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -8914,7 +8914,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{363F6AF2-8670-4E2C-998F-A8F272840A78}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O1:R5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -9285,18 +9285,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041EDBFA-2938-46FA-8C9C-EE65AB434A0B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -9310,21 +9308,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.35" outlineLevelCol="1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="13" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="8.88671875" collapsed="1"/>
-    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.87890625" collapsed="1"/>
+    <col min="15" max="15" width="13.1171875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -9371,7 +9369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9424,7 +9422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9477,7 +9475,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9530,7 +9528,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9583,7 +9581,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9624,7 +9622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9671,7 +9669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9724,7 +9722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9768,11 +9766,11 @@
         <v>23</v>
       </c>
       <c r="P9">
-        <f>($R$3*$P$5)/$R$5</f>
-        <v>242.51831501831501</v>
+        <f>R3*(P5/R5)</f>
+        <v>242.51831501831504</v>
       </c>
       <c r="Q9">
-        <f>($R$3*$Q$5)/$R$5</f>
+        <f>R3*(Q5/R5)</f>
         <v>112.48168498168498</v>
       </c>
       <c r="R9">
@@ -9780,7 +9778,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9824,19 +9822,19 @@
         <v>24</v>
       </c>
       <c r="P10">
-        <f>($R$4*$P$5)/$R$5</f>
+        <f>R4*(P5/R5)</f>
         <v>130.48168498168499</v>
       </c>
       <c r="Q10">
-        <f>($R$4*$Q$5)/$R$5</f>
-        <v>60.518315018315022</v>
+        <f>R4*(Q5/R5)</f>
+        <v>60.518315018315015</v>
       </c>
       <c r="R10">
         <f>SUM(P10,Q10)</f>
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9892,7 +9890,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9933,7 +9931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9975,14 +9973,14 @@
       </c>
       <c r="O13">
         <f>_xlfn.CHISQ.TEST(P3:Q4,P9:Q10)</f>
-        <v>0.29037860486317579</v>
+        <v>0.29037860486317585</v>
       </c>
       <c r="P13" t="str">
         <f ca="1">_xlfn.FORMULATEXT(O13)</f>
         <v>=CHISQ.TEST(P3:Q4,P9:Q10)</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10023,7 +10021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10064,7 +10062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10105,7 +10103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10146,7 +10144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10187,7 +10185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10228,7 +10226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10269,7 +10267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10310,7 +10308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10351,7 +10349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10392,7 +10390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10433,7 +10431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10474,7 +10472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10515,7 +10513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10556,7 +10554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10597,7 +10595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10638,7 +10636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10679,7 +10677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -10720,7 +10718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10802,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10843,7 +10841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10925,7 +10923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10966,7 +10964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11007,7 +11005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11048,7 +11046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11089,7 +11087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11130,7 +11128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11171,7 +11169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11212,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11253,7 +11251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11294,7 +11292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11335,7 +11333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11376,7 +11374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11417,7 +11415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11458,7 +11456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11499,7 +11497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11540,7 +11538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11581,7 +11579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11622,7 +11620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11663,7 +11661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11704,7 +11702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11745,7 +11743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11786,7 +11784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11827,7 +11825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11868,7 +11866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11909,7 +11907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11950,7 +11948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11991,7 +11989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12032,7 +12030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12073,7 +12071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12114,7 +12112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12155,7 +12153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12196,7 +12194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12237,7 +12235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12278,7 +12276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12319,7 +12317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12360,7 +12358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12401,7 +12399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12442,7 +12440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12483,7 +12481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12524,7 +12522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12565,7 +12563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12606,7 +12604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12647,7 +12645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12688,7 +12686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12729,7 +12727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12770,7 +12768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12811,7 +12809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12852,7 +12850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12893,7 +12891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12934,7 +12932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12975,7 +12973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13016,7 +13014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13057,7 +13055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13098,7 +13096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13139,7 +13137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13180,7 +13178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13221,7 +13219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13262,7 +13260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13303,7 +13301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13344,7 +13342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>95</v>
       </c>
@@ -13385,7 +13383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>96</v>
       </c>
@@ -13426,7 +13424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>97</v>
       </c>
@@ -13467,7 +13465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>98</v>
       </c>
@@ -13508,7 +13506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>99</v>
       </c>
@@ -13549,7 +13547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>100</v>
       </c>
@@ -13590,7 +13588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>101</v>
       </c>
@@ -13631,7 +13629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>102</v>
       </c>
@@ -13672,7 +13670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>103</v>
       </c>
@@ -13713,7 +13711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>104</v>
       </c>
@@ -13754,7 +13752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>105</v>
       </c>
@@ -13795,7 +13793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>106</v>
       </c>
@@ -13836,7 +13834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>107</v>
       </c>
@@ -13877,7 +13875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>108</v>
       </c>
@@ -13918,7 +13916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13959,7 +13957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14000,7 +13998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14041,7 +14039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14082,7 +14080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14123,7 +14121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14164,7 +14162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14205,7 +14203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14246,7 +14244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14287,7 +14285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14328,7 +14326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14369,7 +14367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14410,7 +14408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14451,7 +14449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14492,7 +14490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14533,7 +14531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14574,7 +14572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14615,7 +14613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14656,7 +14654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14697,7 +14695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14738,7 +14736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14779,7 +14777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>130</v>
       </c>
@@ -14820,7 +14818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>131</v>
       </c>
@@ -14861,7 +14859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>132</v>
       </c>
@@ -14902,7 +14900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>133</v>
       </c>
@@ -14943,7 +14941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>134</v>
       </c>
@@ -14984,7 +14982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15025,7 +15023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15066,7 +15064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15107,7 +15105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15148,7 +15146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15189,7 +15187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15230,7 +15228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15271,7 +15269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15312,7 +15310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15353,7 +15351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>144</v>
       </c>
@@ -15394,7 +15392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>145</v>
       </c>
@@ -15435,7 +15433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>146</v>
       </c>
@@ -15476,7 +15474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>147</v>
       </c>
@@ -15517,7 +15515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>148</v>
       </c>
@@ -15558,7 +15556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>149</v>
       </c>
@@ -15599,7 +15597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>150</v>
       </c>
@@ -15640,7 +15638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>151</v>
       </c>
@@ -15681,7 +15679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>152</v>
       </c>
@@ -15722,7 +15720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>153</v>
       </c>
@@ -15763,7 +15761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>154</v>
       </c>
@@ -15804,7 +15802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>155</v>
       </c>
@@ -15845,7 +15843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>156</v>
       </c>
@@ -15886,7 +15884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>157</v>
       </c>
@@ -15927,7 +15925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>158</v>
       </c>
@@ -15968,7 +15966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16009,7 +16007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16050,7 +16048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16091,7 +16089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16132,7 +16130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16173,7 +16171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16214,7 +16212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16255,7 +16253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16296,7 +16294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16337,7 +16335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -16378,7 +16376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -16419,7 +16417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -16460,7 +16458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -16501,7 +16499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -16542,7 +16540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -16583,7 +16581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -16624,7 +16622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -16665,7 +16663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -16706,7 +16704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -16747,7 +16745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -16788,7 +16786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>179</v>
       </c>
@@ -16829,7 +16827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>180</v>
       </c>
@@ -16870,7 +16868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>181</v>
       </c>
@@ -16911,7 +16909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>182</v>
       </c>
@@ -16952,7 +16950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>183</v>
       </c>
@@ -16993,7 +16991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>184</v>
       </c>
@@ -17034,7 +17032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17075,7 +17073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17116,7 +17114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17157,7 +17155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17198,7 +17196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17239,7 +17237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17280,7 +17278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17321,7 +17319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17362,7 +17360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>193</v>
       </c>
@@ -17403,7 +17401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>194</v>
       </c>
@@ -17444,7 +17442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>195</v>
       </c>
@@ -17485,7 +17483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>196</v>
       </c>
@@ -17526,7 +17524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -17567,7 +17565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -17608,7 +17606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>199</v>
       </c>
@@ -17649,7 +17647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>200</v>
       </c>
@@ -17690,7 +17688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>201</v>
       </c>
@@ -17731,7 +17729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>202</v>
       </c>
@@ -17772,7 +17770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -17813,7 +17811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>204</v>
       </c>
@@ -17854,7 +17852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>205</v>
       </c>
@@ -17895,7 +17893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>206</v>
       </c>
@@ -17936,7 +17934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>207</v>
       </c>
@@ -17977,7 +17975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18018,7 +18016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18059,7 +18057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18100,7 +18098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18141,7 +18139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18182,7 +18180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18223,7 +18221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18264,7 +18262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18305,7 +18303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18346,7 +18344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>217</v>
       </c>
@@ -18387,7 +18385,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>218</v>
       </c>
@@ -18428,7 +18426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>219</v>
       </c>
@@ -18469,7 +18467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>220</v>
       </c>
@@ -18510,7 +18508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>221</v>
       </c>
@@ -18551,7 +18549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>222</v>
       </c>
@@ -18592,7 +18590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -18633,7 +18631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>224</v>
       </c>
@@ -18674,7 +18672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>225</v>
       </c>
@@ -18715,7 +18713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>226</v>
       </c>
@@ -18756,7 +18754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>227</v>
       </c>
@@ -18797,7 +18795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>228</v>
       </c>
@@ -18838,7 +18836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>229</v>
       </c>
@@ -18879,7 +18877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -18920,7 +18918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>231</v>
       </c>
@@ -18961,7 +18959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19002,7 +19000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19043,7 +19041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19084,7 +19082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -19125,7 +19123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>236</v>
       </c>
@@ -19166,7 +19164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>237</v>
       </c>
@@ -19207,7 +19205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>238</v>
       </c>
@@ -19248,7 +19246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>239</v>
       </c>
@@ -19289,7 +19287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>240</v>
       </c>
@@ -19330,7 +19328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>241</v>
       </c>
@@ -19371,7 +19369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>242</v>
       </c>
@@ -19412,7 +19410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>243</v>
       </c>
@@ -19453,7 +19451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>244</v>
       </c>
@@ -19494,7 +19492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>245</v>
       </c>
@@ -19535,7 +19533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>246</v>
       </c>
@@ -19576,7 +19574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>247</v>
       </c>
@@ -19617,7 +19615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>248</v>
       </c>
@@ -19658,7 +19656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>249</v>
       </c>
@@ -19699,7 +19697,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>250</v>
       </c>
@@ -19740,7 +19738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>251</v>
       </c>
@@ -19781,7 +19779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>252</v>
       </c>
@@ -19822,7 +19820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>253</v>
       </c>
@@ -19863,7 +19861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>254</v>
       </c>
@@ -19904,7 +19902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -19945,7 +19943,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -19986,7 +19984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -20027,7 +20025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -20068,7 +20066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -20109,7 +20107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -20150,7 +20148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -20191,7 +20189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -20232,7 +20230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -20273,7 +20271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -20314,7 +20312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -20355,7 +20353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -20396,7 +20394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -20437,7 +20435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -20478,7 +20476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -20519,7 +20517,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>270</v>
       </c>
@@ -20560,7 +20558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>271</v>
       </c>
@@ -20601,7 +20599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>272</v>
       </c>
@@ -20642,7 +20640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>273</v>
       </c>
@@ -20683,7 +20681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>274</v>
       </c>
@@ -20724,7 +20722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -20765,7 +20763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -20806,7 +20804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>277</v>
       </c>
@@ -20847,7 +20845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>278</v>
       </c>
@@ -20888,7 +20886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>279</v>
       </c>
@@ -20929,7 +20927,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>280</v>
       </c>
@@ -20970,7 +20968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21011,7 +21009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21052,7 +21050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21093,7 +21091,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21134,7 +21132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21175,7 +21173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21216,7 +21214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>287</v>
       </c>
@@ -21257,7 +21255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21298,7 +21296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21339,7 +21337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>290</v>
       </c>
@@ -21380,7 +21378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>291</v>
       </c>
@@ -21421,7 +21419,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>292</v>
       </c>
@@ -21462,7 +21460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>293</v>
       </c>
@@ -21503,7 +21501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>294</v>
       </c>
@@ -21544,7 +21542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>295</v>
       </c>
@@ -21585,7 +21583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>296</v>
       </c>
@@ -21626,7 +21624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>297</v>
       </c>
@@ -21667,7 +21665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>298</v>
       </c>
@@ -21708,7 +21706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>299</v>
       </c>
@@ -21749,7 +21747,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>300</v>
       </c>
@@ -21790,7 +21788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>301</v>
       </c>
@@ -21831,7 +21829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>302</v>
       </c>
@@ -21872,7 +21870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>303</v>
       </c>
@@ -21913,7 +21911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>304</v>
       </c>
@@ -21954,7 +21952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>305</v>
       </c>
@@ -21995,7 +21993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22036,7 +22034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22077,7 +22075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22118,7 +22116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22159,7 +22157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22200,7 +22198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22241,7 +22239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22282,7 +22280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22323,7 +22321,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22364,7 +22362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -22405,7 +22403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>316</v>
       </c>
@@ -22446,7 +22444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>317</v>
       </c>
@@ -22487,7 +22485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>318</v>
       </c>
@@ -22528,7 +22526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>319</v>
       </c>
@@ -22569,7 +22567,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>320</v>
       </c>
@@ -22610,7 +22608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>321</v>
       </c>
@@ -22651,7 +22649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -22692,7 +22690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -22733,7 +22731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -22774,7 +22772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -22815,7 +22813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -22856,7 +22854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -22897,7 +22895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -22938,7 +22936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>329</v>
       </c>
@@ -22979,7 +22977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>330</v>
       </c>
@@ -23020,7 +23018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>331</v>
       </c>
@@ -23061,7 +23059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -23102,7 +23100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>333</v>
       </c>
@@ -23143,7 +23141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -23184,7 +23182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -23225,7 +23223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -23266,7 +23264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -23307,7 +23305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -23348,7 +23346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -23389,7 +23387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -23430,7 +23428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -23471,7 +23469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -23512,7 +23510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -23553,7 +23551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -23594,7 +23592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -23635,7 +23633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -23676,7 +23674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -23717,7 +23715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -23758,7 +23756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -23799,7 +23797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -23840,7 +23838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -23881,7 +23879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>352</v>
       </c>
@@ -23922,7 +23920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>353</v>
       </c>
@@ -23963,7 +23961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24004,7 +24002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>355</v>
       </c>
@@ -24045,7 +24043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>356</v>
       </c>
@@ -24086,7 +24084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>357</v>
       </c>
@@ -24127,7 +24125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>358</v>
       </c>
@@ -24168,7 +24166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>359</v>
       </c>
@@ -24209,7 +24207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>360</v>
       </c>
@@ -24250,7 +24248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>361</v>
       </c>
@@ -24291,7 +24289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -24332,7 +24330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -24373,7 +24371,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -24414,7 +24412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -24455,7 +24453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>366</v>
       </c>
@@ -24496,7 +24494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>367</v>
       </c>
@@ -24537,7 +24535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>368</v>
       </c>
@@ -24578,7 +24576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>369</v>
       </c>
@@ -24619,7 +24617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>370</v>
       </c>
@@ -24660,7 +24658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>371</v>
       </c>
@@ -24701,7 +24699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -24742,7 +24740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -24783,7 +24781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>374</v>
       </c>
@@ -24824,7 +24822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -24865,7 +24863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>376</v>
       </c>
@@ -24906,7 +24904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>377</v>
       </c>
@@ -24947,7 +24945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>378</v>
       </c>
@@ -24988,7 +24986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>379</v>
       </c>
@@ -25029,7 +25027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>380</v>
       </c>
@@ -25070,7 +25068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>381</v>
       </c>
@@ -25111,7 +25109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>382</v>
       </c>
@@ -25152,7 +25150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>383</v>
       </c>
@@ -25193,7 +25191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>384</v>
       </c>
@@ -25234,7 +25232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>385</v>
       </c>
@@ -25275,7 +25273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>386</v>
       </c>
@@ -25316,7 +25314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>387</v>
       </c>
@@ -25357,7 +25355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -25398,7 +25396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -25439,7 +25437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -25480,7 +25478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -25521,7 +25519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>392</v>
       </c>
@@ -25562,7 +25560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>393</v>
       </c>
@@ -25603,7 +25601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>394</v>
       </c>
@@ -25644,7 +25642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>395</v>
       </c>
@@ -25685,7 +25683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>396</v>
       </c>
@@ -25726,7 +25724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>397</v>
       </c>
@@ -25767,7 +25765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>398</v>
       </c>
@@ -25808,7 +25806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>399</v>
       </c>
@@ -25849,7 +25847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>400</v>
       </c>
@@ -25890,7 +25888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>401</v>
       </c>
@@ -25931,7 +25929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>402</v>
       </c>
@@ -25972,7 +25970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>403</v>
       </c>
@@ -26013,7 +26011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>404</v>
       </c>
@@ -26054,7 +26052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>405</v>
       </c>
@@ -26095,7 +26093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>406</v>
       </c>
@@ -26136,7 +26134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -26177,7 +26175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>408</v>
       </c>
@@ -26218,7 +26216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>409</v>
       </c>
@@ -26259,7 +26257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>410</v>
       </c>
@@ -26300,7 +26298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>411</v>
       </c>
@@ -26341,7 +26339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>412</v>
       </c>
@@ -26382,7 +26380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>413</v>
       </c>
@@ -26423,7 +26421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>414</v>
       </c>
@@ -26464,7 +26462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>415</v>
       </c>
@@ -26505,7 +26503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>416</v>
       </c>
@@ -26546,7 +26544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>417</v>
       </c>
@@ -26587,7 +26585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>418</v>
       </c>
@@ -26628,7 +26626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>419</v>
       </c>
@@ -26669,7 +26667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>420</v>
       </c>
@@ -26710,7 +26708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>421</v>
       </c>
@@ -26751,7 +26749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>422</v>
       </c>
@@ -26792,7 +26790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>423</v>
       </c>
@@ -26833,7 +26831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>424</v>
       </c>
@@ -26874,7 +26872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>425</v>
       </c>
@@ -26915,7 +26913,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>426</v>
       </c>
@@ -26956,7 +26954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>427</v>
       </c>
@@ -26997,7 +26995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>428</v>
       </c>
@@ -27038,7 +27036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>429</v>
       </c>
@@ -27079,7 +27077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>430</v>
       </c>
@@ -27120,7 +27118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>431</v>
       </c>
@@ -27161,7 +27159,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>432</v>
       </c>
@@ -27202,7 +27200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>433</v>
       </c>
@@ -27243,7 +27241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>434</v>
       </c>
@@ -27284,7 +27282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>435</v>
       </c>
@@ -27325,7 +27323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>436</v>
       </c>
@@ -27366,7 +27364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>437</v>
       </c>
@@ -27407,7 +27405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>438</v>
       </c>
@@ -27448,7 +27446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>439</v>
       </c>
@@ -27489,7 +27487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>440</v>
       </c>
@@ -27530,7 +27528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>441</v>
       </c>
@@ -27571,7 +27569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>442</v>
       </c>
@@ -27612,7 +27610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>443</v>
       </c>
@@ -27653,7 +27651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>444</v>
       </c>
@@ -27694,7 +27692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>445</v>
       </c>
@@ -27735,7 +27733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>446</v>
       </c>
@@ -27776,7 +27774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>447</v>
       </c>
@@ -27817,7 +27815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>448</v>
       </c>
@@ -27858,7 +27856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>449</v>
       </c>
@@ -27899,7 +27897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>450</v>
       </c>
@@ -27940,7 +27938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>451</v>
       </c>
@@ -27981,7 +27979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>452</v>
       </c>
@@ -28022,7 +28020,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>453</v>
       </c>
@@ -28063,7 +28061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>454</v>
       </c>
@@ -28104,7 +28102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>455</v>
       </c>
@@ -28145,7 +28143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>456</v>
       </c>
@@ -28186,7 +28184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>457</v>
       </c>
@@ -28227,7 +28225,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>458</v>
       </c>
@@ -28268,7 +28266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>459</v>
       </c>
@@ -28309,7 +28307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>460</v>
       </c>
@@ -28350,7 +28348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>461</v>
       </c>
@@ -28391,7 +28389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>462</v>
       </c>
@@ -28432,7 +28430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>463</v>
       </c>
@@ -28473,7 +28471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>464</v>
       </c>
@@ -28514,7 +28512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>465</v>
       </c>
@@ -28555,7 +28553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>466</v>
       </c>
@@ -28596,7 +28594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>467</v>
       </c>
@@ -28637,7 +28635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A469">
         <v>468</v>
       </c>
@@ -28678,7 +28676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A470">
         <v>469</v>
       </c>
@@ -28719,7 +28717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A471">
         <v>470</v>
       </c>
@@ -28760,7 +28758,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A472">
         <v>471</v>
       </c>
@@ -28801,7 +28799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A473">
         <v>472</v>
       </c>
@@ -28842,7 +28840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A474">
         <v>473</v>
       </c>
@@ -28883,7 +28881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A475">
         <v>474</v>
       </c>
@@ -28924,7 +28922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A476">
         <v>475</v>
       </c>
@@ -28965,7 +28963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A477">
         <v>476</v>
       </c>
@@ -29006,7 +29004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A478">
         <v>477</v>
       </c>
@@ -29047,7 +29045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A479">
         <v>478</v>
       </c>
@@ -29088,7 +29086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A480">
         <v>479</v>
       </c>
@@ -29129,7 +29127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A481">
         <v>480</v>
       </c>
@@ -29170,7 +29168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A482">
         <v>481</v>
       </c>
@@ -29211,7 +29209,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A483">
         <v>482</v>
       </c>
@@ -29252,7 +29250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A484">
         <v>483</v>
       </c>
@@ -29293,7 +29291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A485">
         <v>484</v>
       </c>
@@ -29334,7 +29332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A486">
         <v>485</v>
       </c>
@@ -29375,7 +29373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A487">
         <v>486</v>
       </c>
@@ -29416,7 +29414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A488">
         <v>487</v>
       </c>
@@ -29457,7 +29455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A489">
         <v>488</v>
       </c>
@@ -29498,7 +29496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A490">
         <v>489</v>
       </c>
@@ -29539,7 +29537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A491">
         <v>490</v>
       </c>
@@ -29580,7 +29578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A492">
         <v>491</v>
       </c>
@@ -29621,7 +29619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A493">
         <v>492</v>
       </c>
@@ -29662,7 +29660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A494">
         <v>493</v>
       </c>
@@ -29703,7 +29701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A495">
         <v>494</v>
       </c>
@@ -29744,7 +29742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A496">
         <v>495</v>
       </c>
@@ -29785,7 +29783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A497">
         <v>496</v>
       </c>
@@ -29826,7 +29824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A498">
         <v>497</v>
       </c>
@@ -29867,7 +29865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A499">
         <v>498</v>
       </c>
@@ -29908,7 +29906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A500">
         <v>499</v>
       </c>
@@ -29949,7 +29947,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A501">
         <v>500</v>
       </c>
@@ -29990,7 +29988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A502">
         <v>501</v>
       </c>
@@ -30031,7 +30029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A503">
         <v>502</v>
       </c>
@@ -30072,7 +30070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A504">
         <v>503</v>
       </c>
@@ -30113,7 +30111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A505">
         <v>504</v>
       </c>
@@ -30154,7 +30152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A506">
         <v>505</v>
       </c>
@@ -30195,7 +30193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A507">
         <v>506</v>
       </c>
@@ -30236,7 +30234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A508">
         <v>507</v>
       </c>
@@ -30277,7 +30275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A509">
         <v>508</v>
       </c>
@@ -30318,7 +30316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A510">
         <v>509</v>
       </c>
@@ -30359,7 +30357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A511">
         <v>510</v>
       </c>
@@ -30400,7 +30398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A512">
         <v>511</v>
       </c>
@@ -30441,7 +30439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A513">
         <v>512</v>
       </c>
@@ -30482,7 +30480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A514">
         <v>513</v>
       </c>
@@ -30523,7 +30521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A515">
         <v>514</v>
       </c>
@@ -30564,7 +30562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A516">
         <v>515</v>
       </c>
@@ -30605,7 +30603,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A517">
         <v>516</v>
       </c>
@@ -30646,7 +30644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A518">
         <v>517</v>
       </c>
@@ -30687,7 +30685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A519">
         <v>518</v>
       </c>
@@ -30728,7 +30726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A520">
         <v>519</v>
       </c>
@@ -30769,7 +30767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A521">
         <v>520</v>
       </c>
@@ -30810,7 +30808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A522">
         <v>521</v>
       </c>
@@ -30851,7 +30849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A523">
         <v>522</v>
       </c>
@@ -30892,7 +30890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A524">
         <v>523</v>
       </c>
@@ -30933,7 +30931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A525">
         <v>524</v>
       </c>
@@ -30974,7 +30972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A526">
         <v>525</v>
       </c>
@@ -31015,7 +31013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A527">
         <v>526</v>
       </c>
@@ -31056,7 +31054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A528">
         <v>527</v>
       </c>
@@ -31097,7 +31095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A529">
         <v>528</v>
       </c>
@@ -31138,7 +31136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A530">
         <v>529</v>
       </c>
@@ -31179,7 +31177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A531">
         <v>530</v>
       </c>
@@ -31220,7 +31218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A532">
         <v>531</v>
       </c>
@@ -31261,7 +31259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A533">
         <v>532</v>
       </c>
@@ -31302,7 +31300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A534">
         <v>533</v>
       </c>
@@ -31343,7 +31341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A535">
         <v>534</v>
       </c>
@@ -31384,7 +31382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A536">
         <v>535</v>
       </c>
@@ -31425,7 +31423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A537">
         <v>536</v>
       </c>
@@ -31466,7 +31464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A538">
         <v>537</v>
       </c>
@@ -31507,7 +31505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A539">
         <v>538</v>
       </c>
@@ -31548,7 +31546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A540">
         <v>539</v>
       </c>
@@ -31589,7 +31587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A541">
         <v>540</v>
       </c>
@@ -31630,7 +31628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A542">
         <v>541</v>
       </c>
@@ -31671,7 +31669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A543">
         <v>542</v>
       </c>
@@ -31712,7 +31710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A544">
         <v>543</v>
       </c>
@@ -31753,7 +31751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A545">
         <v>544</v>
       </c>
@@ -31794,7 +31792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A546">
         <v>545</v>
       </c>
@@ -31835,7 +31833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A547">
         <v>546</v>
       </c>
